--- a/src/analysis_examples/circadb/results_jtk/cosinor_10598107_taf1a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10598107_taf1a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20874954548316849, 0.3184005145090394]</t>
+          <t>[0.20709592357191703, 0.32005413642029085]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.944899574723991e-09</v>
+        <v>3.263997294666865e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.944899574723991e-09</v>
+        <v>3.263997294666865e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3647895373537695</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4898046442909049, 0.5525904399251838]</t>
+          <t>[0.48983879225125015, 0.5525562919648386]</t>
         </is>
       </c>
       <c r="U2" t="n">
